--- a/data/processed/OSM_all_config_covariates_correlation.xlsx
+++ b/data/processed/OSM_all_config_covariates_correlation.xlsx
@@ -7,26 +7,28 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="250m" sheetId="1" r:id="rId1"/>
-    <sheet name="500m" sheetId="2" r:id="rId2"/>
-    <sheet name="750m" sheetId="3" r:id="rId3"/>
-    <sheet name="1000m" sheetId="4" r:id="rId4"/>
-    <sheet name="1250m" sheetId="5" r:id="rId5"/>
-    <sheet name="1500m" sheetId="6" r:id="rId6"/>
-    <sheet name="1750m" sheetId="7" r:id="rId7"/>
-    <sheet name="2000m" sheetId="8" r:id="rId8"/>
-    <sheet name="2250m" sheetId="9" r:id="rId9"/>
-    <sheet name="2500m" sheetId="10" r:id="rId10"/>
-    <sheet name="2750m" sheetId="11" r:id="rId11"/>
-    <sheet name="3000m" sheetId="12" r:id="rId12"/>
-    <sheet name="3250m" sheetId="13" r:id="rId13"/>
-    <sheet name="3500m" sheetId="14" r:id="rId14"/>
-    <sheet name="3750m" sheetId="15" r:id="rId15"/>
-    <sheet name="4000m" sheetId="16" r:id="rId16"/>
-    <sheet name="4250m" sheetId="17" r:id="rId17"/>
-    <sheet name="4500m" sheetId="18" r:id="rId18"/>
-    <sheet name="4750m" sheetId="19" r:id="rId19"/>
-    <sheet name="5000m" sheetId="20" r:id="rId20"/>
+    <sheet name="50m" sheetId="1" r:id="rId1"/>
+    <sheet name="100m" sheetId="2" r:id="rId2"/>
+    <sheet name="250m" sheetId="3" r:id="rId3"/>
+    <sheet name="500m" sheetId="4" r:id="rId4"/>
+    <sheet name="750m" sheetId="5" r:id="rId5"/>
+    <sheet name="1000m" sheetId="6" r:id="rId6"/>
+    <sheet name="1250m" sheetId="7" r:id="rId7"/>
+    <sheet name="1500m" sheetId="8" r:id="rId8"/>
+    <sheet name="1750m" sheetId="9" r:id="rId9"/>
+    <sheet name="2000m" sheetId="10" r:id="rId10"/>
+    <sheet name="2250m" sheetId="11" r:id="rId11"/>
+    <sheet name="2500m" sheetId="12" r:id="rId12"/>
+    <sheet name="2750m" sheetId="13" r:id="rId13"/>
+    <sheet name="3000m" sheetId="14" r:id="rId14"/>
+    <sheet name="3250m" sheetId="15" r:id="rId15"/>
+    <sheet name="3500m" sheetId="16" r:id="rId16"/>
+    <sheet name="3750m" sheetId="17" r:id="rId17"/>
+    <sheet name="4000m" sheetId="18" r:id="rId18"/>
+    <sheet name="4250m" sheetId="19" r:id="rId19"/>
+    <sheet name="4500m" sheetId="20" r:id="rId20"/>
+    <sheet name="4750m" sheetId="21" r:id="rId21"/>
+    <sheet name="5000m" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -2344,6 +2346,310 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>term</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>nonanthro_tca</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>nonanthro_ed</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>nonanthro_cai_mn</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>landscape_tca</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>landscape_siei</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>landscape_shei</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>landscape_np</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>landscape_mesh</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>landscape_ed</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>landscape_contag</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>landscape_cai_mn</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>landscape_cai_mn</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>landscape_contag</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>landscape_ed</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>landscape_mesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>landscape_np</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>landscape_shei</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>landscape_siei</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>landscape_tca</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>nonanthro_cai_mn</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>nonanthro_ed</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>nonanthro_tca</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>term</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>nonanthro_tca</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>nonanthro_ed</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>nonanthro_cai_mn</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>landscape_tca</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>landscape_siei</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>landscape_shei</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>landscape_np</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>landscape_mesh</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>landscape_ed</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>landscape_contag</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>landscape_cai_mn</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>landscape_cai_mn</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>landscape_contag</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>landscape_ed</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>landscape_mesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>landscape_np</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>landscape_shei</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>landscape_siei</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>landscape_tca</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>nonanthro_cai_mn</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>nonanthro_ed</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>nonanthro_tca</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L12"/>

--- a/data/processed/OSM_all_config_covariates_correlation.xlsx
+++ b/data/processed/OSM_all_config_covariates_correlation.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,14 +396,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>nonanthro_cai_mn</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_tca</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>landscape_siei</t>
@@ -426,92 +426,176 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>landscape_contag</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_cai_mn</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>landscape_cai_mn</t>
-        </is>
+          <t>landscape_contag</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.5303137544496752</v>
+      </c>
+      <c r="C2">
+        <v>-0.6701768478584855</v>
+      </c>
+      <c r="D2">
+        <v>0.6357614954228661</v>
+      </c>
+      <c r="E2">
+        <v>0.5228406894378248</v>
+      </c>
+      <c r="F2">
+        <v>-0.9732075688172654</v>
+      </c>
+      <c r="G2">
+        <v>-0.9779771614102233</v>
+      </c>
+      <c r="H2">
+        <v>-0.7921423615361366</v>
+      </c>
+      <c r="I2">
+        <v>0.8972277110280464</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>landscape_contag</t>
-        </is>
+          <t>landscape_mesh</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0.6267965586708645</v>
+      </c>
+      <c r="C3">
+        <v>-0.8072814949979945</v>
+      </c>
+      <c r="D3">
+        <v>0.7749123977093768</v>
+      </c>
+      <c r="E3">
+        <v>0.6317281322810026</v>
+      </c>
+      <c r="F3">
+        <v>-0.842142953672237</v>
+      </c>
+      <c r="G3">
+        <v>-0.8398522586392233</v>
+      </c>
+      <c r="H3">
+        <v>-0.8851430633656623</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
+          <t>landscape_np</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>-0.6518853521423035</v>
+      </c>
+      <c r="C4">
+        <v>0.8336358421544421</v>
+      </c>
+      <c r="D4">
+        <v>-0.7944246732873954</v>
+      </c>
+      <c r="E4">
+        <v>-0.6713838170055891</v>
+      </c>
+      <c r="F4">
+        <v>0.7312436998320626</v>
+      </c>
+      <c r="G4">
+        <v>0.7213883536574124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>landscape_mesh</t>
-        </is>
+          <t>landscape_shei</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>-0.4668141908355972</v>
+      </c>
+      <c r="C5">
+        <v>0.5715728151548176</v>
+      </c>
+      <c r="D5">
+        <v>-0.5530840929816029</v>
+      </c>
+      <c r="E5">
+        <v>-0.4502005492733047</v>
+      </c>
+      <c r="F5">
+        <v>0.9973162272473389</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>landscape_np</t>
-        </is>
+          <t>landscape_siei</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>-0.4680904877102461</v>
+      </c>
+      <c r="C6">
+        <v>0.5723162080308072</v>
+      </c>
+      <c r="D6">
+        <v>-0.5543114395018278</v>
+      </c>
+      <c r="E6">
+        <v>-0.4509651986537236</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>landscape_shei</t>
-        </is>
+          <t>nonanthro_cai_mn</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.9926464833687256</v>
+      </c>
+      <c r="C7">
+        <v>-0.7984197132295808</v>
+      </c>
+      <c r="D7">
+        <v>0.8345028601735714</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>landscape_siei</t>
-        </is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.8256944254420927</v>
+      </c>
+      <c r="C8">
+        <v>-0.9504629206367308</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>landscape_tca</t>
-        </is>
+          <t>nonanthro_ed</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>-0.7864820525922624</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
-        <is>
-          <t>nonanthro_cai_mn</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>nonanthro_ed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
         <is>
           <t>nonanthro_tca</t>
         </is>
@@ -524,7 +608,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -548,14 +632,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>nonanthro_cai_mn</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_tca</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>landscape_siei</t>
@@ -578,92 +662,176 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>landscape_contag</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_cai_mn</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>landscape_cai_mn</t>
-        </is>
+          <t>landscape_contag</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.4561910543996552</v>
+      </c>
+      <c r="C2">
+        <v>-0.4230799794281151</v>
+      </c>
+      <c r="D2">
+        <v>0.3786347467888502</v>
+      </c>
+      <c r="E2">
+        <v>0.3576049375542172</v>
+      </c>
+      <c r="F2">
+        <v>-0.9359885352870838</v>
+      </c>
+      <c r="G2">
+        <v>-0.9578774433358148</v>
+      </c>
+      <c r="H2">
+        <v>-0.506364815048065</v>
+      </c>
+      <c r="I2">
+        <v>0.3209103096762946</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>landscape_contag</t>
-        </is>
+          <t>landscape_mesh</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0.2322969535725161</v>
+      </c>
+      <c r="C3">
+        <v>-0.4720205386800109</v>
+      </c>
+      <c r="D3">
+        <v>0.4834224643321929</v>
+      </c>
+      <c r="E3">
+        <v>0.06286189933737552</v>
+      </c>
+      <c r="F3">
+        <v>-0.2671733166202491</v>
+      </c>
+      <c r="G3">
+        <v>-0.2558879096406749</v>
+      </c>
+      <c r="H3">
+        <v>-0.4062945072165107</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
+          <t>landscape_np</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>-0.8268587153886181</v>
+      </c>
+      <c r="C4">
+        <v>0.9166562240865382</v>
+      </c>
+      <c r="D4">
+        <v>-0.7845833075482598</v>
+      </c>
+      <c r="E4">
+        <v>-0.7509233916476052</v>
+      </c>
+      <c r="F4">
+        <v>0.3875426585368078</v>
+      </c>
+      <c r="G4">
+        <v>0.3179070793399824</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>landscape_mesh</t>
-        </is>
+          <t>landscape_shei</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>-0.2922040027635452</v>
+      </c>
+      <c r="C5">
+        <v>0.2186574769858642</v>
+      </c>
+      <c r="D5">
+        <v>-0.1940004958080823</v>
+      </c>
+      <c r="E5">
+        <v>-0.2033906631867027</v>
+      </c>
+      <c r="F5">
+        <v>0.9574106139907682</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>landscape_np</t>
-        </is>
+          <t>landscape_siei</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>-0.3734940395491844</v>
+      </c>
+      <c r="C6">
+        <v>0.286345166191926</v>
+      </c>
+      <c r="D6">
+        <v>-0.2578610295979313</v>
+      </c>
+      <c r="E6">
+        <v>-0.2774785781854254</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>landscape_shei</t>
-        </is>
+          <t>nonanthro_cai_mn</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.7772727461390926</v>
+      </c>
+      <c r="C7">
+        <v>-0.7062518984280166</v>
+      </c>
+      <c r="D7">
+        <v>0.5782005939886478</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>landscape_siei</t>
-        </is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.8277380095758123</v>
+      </c>
+      <c r="C8">
+        <v>-0.8792975222047686</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>landscape_tca</t>
-        </is>
+          <t>nonanthro_ed</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>-0.8734970959003765</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
-        <is>
-          <t>nonanthro_cai_mn</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>nonanthro_ed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
         <is>
           <t>nonanthro_tca</t>
         </is>
@@ -676,7 +844,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -700,14 +868,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>nonanthro_cai_mn</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_tca</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>landscape_siei</t>
@@ -730,92 +898,176 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>landscape_contag</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_cai_mn</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>landscape_cai_mn</t>
-        </is>
+          <t>landscape_contag</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.4639095108743843</v>
+      </c>
+      <c r="C2">
+        <v>-0.4287299276022095</v>
+      </c>
+      <c r="D2">
+        <v>0.370987680640732</v>
+      </c>
+      <c r="E2">
+        <v>0.3497405308768822</v>
+      </c>
+      <c r="F2">
+        <v>-0.9352622556852849</v>
+      </c>
+      <c r="G2">
+        <v>-0.9560190308800894</v>
+      </c>
+      <c r="H2">
+        <v>-0.50839045875724</v>
+      </c>
+      <c r="I2">
+        <v>0.2786128240722748</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>landscape_contag</t>
-        </is>
+          <t>landscape_mesh</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0.2099824203207357</v>
+      </c>
+      <c r="C3">
+        <v>-0.4528400860457192</v>
+      </c>
+      <c r="D3">
+        <v>0.4723814145170644</v>
+      </c>
+      <c r="E3">
+        <v>0.01315219610152972</v>
+      </c>
+      <c r="F3">
+        <v>-0.2277352173537356</v>
+      </c>
+      <c r="G3">
+        <v>-0.2146633919687392</v>
+      </c>
+      <c r="H3">
+        <v>-0.384121887553512</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
+          <t>landscape_np</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>-0.8315526483363487</v>
+      </c>
+      <c r="C4">
+        <v>0.9190472577200234</v>
+      </c>
+      <c r="D4">
+        <v>-0.7917657894467626</v>
+      </c>
+      <c r="E4">
+        <v>-0.7413796818267652</v>
+      </c>
+      <c r="F4">
+        <v>0.3857669667845195</v>
+      </c>
+      <c r="G4">
+        <v>0.3178211722161414</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>landscape_mesh</t>
-        </is>
+          <t>landscape_shei</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>-0.2986214346814358</v>
+      </c>
+      <c r="C5">
+        <v>0.222963687151892</v>
+      </c>
+      <c r="D5">
+        <v>-0.1820967248367021</v>
+      </c>
+      <c r="E5">
+        <v>-0.1952006985083119</v>
+      </c>
+      <c r="F5">
+        <v>0.9590163680812792</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>landscape_np</t>
-        </is>
+          <t>landscape_siei</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>-0.3772356171320181</v>
+      </c>
+      <c r="C6">
+        <v>0.2858283787113442</v>
+      </c>
+      <c r="D6">
+        <v>-0.2443395809931179</v>
+      </c>
+      <c r="E6">
+        <v>-0.263815405443852</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>landscape_shei</t>
-        </is>
+          <t>nonanthro_cai_mn</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.7533926064223371</v>
+      </c>
+      <c r="C7">
+        <v>-0.6836946682519444</v>
+      </c>
+      <c r="D7">
+        <v>0.5377396358565084</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>landscape_siei</t>
-        </is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.8212262458310048</v>
+      </c>
+      <c r="C8">
+        <v>-0.8849516964447088</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>landscape_tca</t>
-        </is>
+          <t>nonanthro_ed</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>-0.8739966772557286</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
-        <is>
-          <t>nonanthro_cai_mn</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>nonanthro_ed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
         <is>
           <t>nonanthro_tca</t>
         </is>
@@ -828,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -852,14 +1104,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>nonanthro_cai_mn</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_tca</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>landscape_siei</t>
@@ -882,92 +1134,176 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>landscape_contag</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_cai_mn</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>landscape_cai_mn</t>
-        </is>
+          <t>landscape_contag</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.4612893500499392</v>
+      </c>
+      <c r="C2">
+        <v>-0.4335272669918976</v>
+      </c>
+      <c r="D2">
+        <v>0.3719527329628231</v>
+      </c>
+      <c r="E2">
+        <v>0.3501545343988553</v>
+      </c>
+      <c r="F2">
+        <v>-0.9248815286585749</v>
+      </c>
+      <c r="G2">
+        <v>-0.9488819603210149</v>
+      </c>
+      <c r="H2">
+        <v>-0.5112058526582171</v>
+      </c>
+      <c r="I2">
+        <v>0.2577337948297858</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>landscape_contag</t>
-        </is>
+          <t>landscape_mesh</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0.1903269880715518</v>
+      </c>
+      <c r="C3">
+        <v>-0.4335307384031282</v>
+      </c>
+      <c r="D3">
+        <v>0.4641697157857521</v>
+      </c>
+      <c r="E3">
+        <v>-0.03441821223076281</v>
+      </c>
+      <c r="F3">
+        <v>-0.2107616766765312</v>
+      </c>
+      <c r="G3">
+        <v>-0.2001032367513779</v>
+      </c>
+      <c r="H3">
+        <v>-0.3567544450587838</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
+          <t>landscape_np</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>-0.8349030739038755</v>
+      </c>
+      <c r="C4">
+        <v>0.9225524642692092</v>
+      </c>
+      <c r="D4">
+        <v>-0.7956174248416448</v>
+      </c>
+      <c r="E4">
+        <v>-0.7217140685560043</v>
+      </c>
+      <c r="F4">
+        <v>0.3738088277323187</v>
+      </c>
+      <c r="G4">
+        <v>0.3042697385953462</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>landscape_mesh</t>
-        </is>
+          <t>landscape_shei</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>-0.2847025849561866</v>
+      </c>
+      <c r="C5">
+        <v>0.21279199945363</v>
+      </c>
+      <c r="D5">
+        <v>-0.1675631334618007</v>
+      </c>
+      <c r="E5">
+        <v>-0.1840296971684227</v>
+      </c>
+      <c r="F5">
+        <v>0.9525553171266222</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>landscape_np</t>
-        </is>
+          <t>landscape_siei</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>-0.3681376520204557</v>
+      </c>
+      <c r="C6">
+        <v>0.2778092678378654</v>
+      </c>
+      <c r="D6">
+        <v>-0.2324898432921959</v>
+      </c>
+      <c r="E6">
+        <v>-0.2489918757657386</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>landscape_shei</t>
-        </is>
+          <t>nonanthro_cai_mn</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.7200801895994254</v>
+      </c>
+      <c r="C7">
+        <v>-0.6546504270024477</v>
+      </c>
+      <c r="D7">
+        <v>0.4949019684788313</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>landscape_siei</t>
-        </is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.8178363372989175</v>
+      </c>
+      <c r="C8">
+        <v>-0.886447421892304</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>landscape_tca</t>
-        </is>
+          <t>nonanthro_ed</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>-0.8726250170268947</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
-        <is>
-          <t>nonanthro_cai_mn</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>nonanthro_ed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
         <is>
           <t>nonanthro_tca</t>
         </is>
@@ -980,7 +1316,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1004,14 +1340,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>nonanthro_cai_mn</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_tca</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>landscape_siei</t>
@@ -1034,92 +1370,176 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>landscape_contag</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_cai_mn</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>landscape_cai_mn</t>
-        </is>
+          <t>landscape_contag</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.4731200128412038</v>
+      </c>
+      <c r="C2">
+        <v>-0.4456968273187989</v>
+      </c>
+      <c r="D2">
+        <v>0.3948734048016409</v>
+      </c>
+      <c r="E2">
+        <v>0.3547537014865564</v>
+      </c>
+      <c r="F2">
+        <v>-0.9200974711901166</v>
+      </c>
+      <c r="G2">
+        <v>-0.9472707727172734</v>
+      </c>
+      <c r="H2">
+        <v>-0.5190794184846196</v>
+      </c>
+      <c r="I2">
+        <v>0.2431701682011939</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>landscape_contag</t>
-        </is>
+          <t>landscape_mesh</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0.1731880336375234</v>
+      </c>
+      <c r="C3">
+        <v>-0.4191619635962159</v>
+      </c>
+      <c r="D3">
+        <v>0.459876485679108</v>
+      </c>
+      <c r="E3">
+        <v>-0.06178213951375339</v>
+      </c>
+      <c r="F3">
+        <v>-0.1966831420346771</v>
+      </c>
+      <c r="G3">
+        <v>-0.1933540586645858</v>
+      </c>
+      <c r="H3">
+        <v>-0.3338407141660395</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
+          <t>landscape_np</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>-0.8379528322239199</v>
+      </c>
+      <c r="C4">
+        <v>0.9257666123171946</v>
+      </c>
+      <c r="D4">
+        <v>-0.8000876005486901</v>
+      </c>
+      <c r="E4">
+        <v>-0.7175817419600269</v>
+      </c>
+      <c r="F4">
+        <v>0.3739802230160086</v>
+      </c>
+      <c r="G4">
+        <v>0.3072510657461434</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>landscape_mesh</t>
-        </is>
+          <t>landscape_shei</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>-0.2942751634591394</v>
+      </c>
+      <c r="C5">
+        <v>0.2206425204860428</v>
+      </c>
+      <c r="D5">
+        <v>-0.1888671841836467</v>
+      </c>
+      <c r="E5">
+        <v>-0.189351370584846</v>
+      </c>
+      <c r="F5">
+        <v>0.9497664155301881</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>landscape_np</t>
-        </is>
+          <t>landscape_siei</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>-0.3747082174985624</v>
+      </c>
+      <c r="C6">
+        <v>0.2793928350826856</v>
+      </c>
+      <c r="D6">
+        <v>-0.2482781234305542</v>
+      </c>
+      <c r="E6">
+        <v>-0.2479009470538095</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>landscape_shei</t>
-        </is>
+          <t>nonanthro_cai_mn</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.703664818026919</v>
+      </c>
+      <c r="C7">
+        <v>-0.6412030854808602</v>
+      </c>
+      <c r="D7">
+        <v>0.4819089290356759</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>landscape_siei</t>
-        </is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.8189061665811838</v>
+      </c>
+      <c r="C8">
+        <v>-0.8861832927769364</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>landscape_tca</t>
-        </is>
+          <t>nonanthro_ed</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>-0.8718177204154727</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
-        <is>
-          <t>nonanthro_cai_mn</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>nonanthro_ed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
         <is>
           <t>nonanthro_tca</t>
         </is>
@@ -1132,7 +1552,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1156,14 +1576,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>nonanthro_cai_mn</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_tca</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>landscape_siei</t>
@@ -1186,92 +1606,176 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>landscape_contag</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_cai_mn</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>landscape_cai_mn</t>
-        </is>
+          <t>landscape_contag</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.4797000549765887</v>
+      </c>
+      <c r="C2">
+        <v>-0.4428875500477507</v>
+      </c>
+      <c r="D2">
+        <v>0.3929488846016121</v>
+      </c>
+      <c r="E2">
+        <v>0.3476142160327128</v>
+      </c>
+      <c r="F2">
+        <v>-0.9227313667285608</v>
+      </c>
+      <c r="G2">
+        <v>-0.9468702020474533</v>
+      </c>
+      <c r="H2">
+        <v>-0.5229545143349318</v>
+      </c>
+      <c r="I2">
+        <v>0.2296911311857624</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>landscape_contag</t>
-        </is>
+          <t>landscape_mesh</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0.1521336161275728</v>
+      </c>
+      <c r="C3">
+        <v>-0.3997622083307077</v>
+      </c>
+      <c r="D3">
+        <v>0.4507604088567775</v>
+      </c>
+      <c r="E3">
+        <v>-0.0845758784462718</v>
+      </c>
+      <c r="F3">
+        <v>-0.1903902281283169</v>
+      </c>
+      <c r="G3">
+        <v>-0.1924667357678743</v>
+      </c>
+      <c r="H3">
+        <v>-0.3145417487033619</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
+          <t>landscape_np</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>-0.8425317830148343</v>
+      </c>
+      <c r="C4">
+        <v>0.9292973406047959</v>
+      </c>
+      <c r="D4">
+        <v>-0.8082138608583762</v>
+      </c>
+      <c r="E4">
+        <v>-0.7226496407156848</v>
+      </c>
+      <c r="F4">
+        <v>0.3725101481479526</v>
+      </c>
+      <c r="G4">
+        <v>0.3066937754329673</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>landscape_mesh</t>
-        </is>
+          <t>landscape_shei</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>-0.2981536997508507</v>
+      </c>
+      <c r="C5">
+        <v>0.214845112800112</v>
+      </c>
+      <c r="D5">
+        <v>-0.1860662081133672</v>
+      </c>
+      <c r="E5">
+        <v>-0.1753052860914513</v>
+      </c>
+      <c r="F5">
+        <v>0.9510049546848769</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>landscape_np</t>
-        </is>
+          <t>landscape_siei</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>-0.3763694245645359</v>
+      </c>
+      <c r="C6">
+        <v>0.2737182851681313</v>
+      </c>
+      <c r="D6">
+        <v>-0.2476205173987508</v>
+      </c>
+      <c r="E6">
+        <v>-0.2289539845575026</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>landscape_shei</t>
-        </is>
+          <t>nonanthro_cai_mn</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.7019130871826064</v>
+      </c>
+      <c r="C7">
+        <v>-0.6438464896674576</v>
+      </c>
+      <c r="D7">
+        <v>0.4781324864096136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>landscape_siei</t>
-        </is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.8190410679268392</v>
+      </c>
+      <c r="C8">
+        <v>-0.8868424081179705</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>landscape_tca</t>
-        </is>
+          <t>nonanthro_ed</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>-0.8700588894729075</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
-        <is>
-          <t>nonanthro_cai_mn</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>nonanthro_ed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
         <is>
           <t>nonanthro_tca</t>
         </is>
@@ -1284,7 +1788,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1308,14 +1812,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>nonanthro_cai_mn</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_tca</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>landscape_siei</t>
@@ -1338,92 +1842,176 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>landscape_contag</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_cai_mn</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>landscape_cai_mn</t>
-        </is>
+          <t>landscape_contag</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.5016632210394688</v>
+      </c>
+      <c r="C2">
+        <v>-0.4576807426103277</v>
+      </c>
+      <c r="D2">
+        <v>0.4196167184674172</v>
+      </c>
+      <c r="E2">
+        <v>0.3311094668025548</v>
+      </c>
+      <c r="F2">
+        <v>-0.9236624595929619</v>
+      </c>
+      <c r="G2">
+        <v>-0.9453910790013956</v>
+      </c>
+      <c r="H2">
+        <v>-0.5419338888697457</v>
+      </c>
+      <c r="I2">
+        <v>0.215297150914698</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>landscape_contag</t>
-        </is>
+          <t>landscape_mesh</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0.1288807453270843</v>
+      </c>
+      <c r="C3">
+        <v>-0.3765571826328314</v>
+      </c>
+      <c r="D3">
+        <v>0.4425088643617754</v>
+      </c>
+      <c r="E3">
+        <v>-0.1505859704424427</v>
+      </c>
+      <c r="F3">
+        <v>-0.1829481261737237</v>
+      </c>
+      <c r="G3">
+        <v>-0.1860719434884438</v>
+      </c>
+      <c r="H3">
+        <v>-0.2887437022528602</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
+          <t>landscape_np</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>-0.8467524481916947</v>
+      </c>
+      <c r="C4">
+        <v>0.9314062381340057</v>
+      </c>
+      <c r="D4">
+        <v>-0.8123774037376461</v>
+      </c>
+      <c r="E4">
+        <v>-0.7008324197921336</v>
+      </c>
+      <c r="F4">
+        <v>0.3798402943651095</v>
+      </c>
+      <c r="G4">
+        <v>0.3224119356739989</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>landscape_mesh</t>
-        </is>
+          <t>landscape_shei</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>-0.3169969727030106</v>
+      </c>
+      <c r="C5">
+        <v>0.226717339208571</v>
+      </c>
+      <c r="D5">
+        <v>-0.2098707314376661</v>
+      </c>
+      <c r="E5">
+        <v>-0.157654971155214</v>
+      </c>
+      <c r="F5">
+        <v>0.9538125717157714</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>landscape_np</t>
-        </is>
+          <t>landscape_siei</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>-0.3898852887251959</v>
+      </c>
+      <c r="C6">
+        <v>0.2803183435029331</v>
+      </c>
+      <c r="D6">
+        <v>-0.2665881574315179</v>
+      </c>
+      <c r="E6">
+        <v>-0.2008302710077922</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>landscape_shei</t>
-        </is>
+          <t>nonanthro_cai_mn</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.6623297923681024</v>
+      </c>
+      <c r="C7">
+        <v>-0.6055815764659448</v>
+      </c>
+      <c r="D7">
+        <v>0.4359836677648148</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>landscape_siei</t>
-        </is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.816211414981177</v>
+      </c>
+      <c r="C8">
+        <v>-0.887805800199908</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>landscape_tca</t>
-        </is>
+          <t>nonanthro_ed</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>-0.8687657133240686</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
-        <is>
-          <t>nonanthro_cai_mn</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>nonanthro_ed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
         <is>
           <t>nonanthro_tca</t>
         </is>
@@ -1436,7 +2024,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1460,14 +2048,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>nonanthro_cai_mn</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_tca</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>landscape_siei</t>
@@ -1490,92 +2078,176 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>landscape_contag</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_cai_mn</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>landscape_cai_mn</t>
-        </is>
+          <t>landscape_contag</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.5154276684304202</v>
+      </c>
+      <c r="C2">
+        <v>-0.4642906114551288</v>
+      </c>
+      <c r="D2">
+        <v>0.4281200157420952</v>
+      </c>
+      <c r="E2">
+        <v>0.3406466409002425</v>
+      </c>
+      <c r="F2">
+        <v>-0.9239107409614072</v>
+      </c>
+      <c r="G2">
+        <v>-0.9423525376582085</v>
+      </c>
+      <c r="H2">
+        <v>-0.5443481091833887</v>
+      </c>
+      <c r="I2">
+        <v>0.1846940950917641</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>landscape_contag</t>
-        </is>
+          <t>landscape_mesh</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0.1079795292389044</v>
+      </c>
+      <c r="C3">
+        <v>-0.358054258912188</v>
+      </c>
+      <c r="D3">
+        <v>0.4306920296020819</v>
+      </c>
+      <c r="E3">
+        <v>-0.1588692104312889</v>
+      </c>
+      <c r="F3">
+        <v>-0.1606369134022509</v>
+      </c>
+      <c r="G3">
+        <v>-0.1574193679843062</v>
+      </c>
+      <c r="H3">
+        <v>-0.2619333651857331</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
+          <t>landscape_np</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>-0.8477983762988472</v>
+      </c>
+      <c r="C4">
+        <v>0.9292076309995502</v>
+      </c>
+      <c r="D4">
+        <v>-0.8124384153114559</v>
+      </c>
+      <c r="E4">
+        <v>-0.7088538797029853</v>
+      </c>
+      <c r="F4">
+        <v>0.3762540976919819</v>
+      </c>
+      <c r="G4">
+        <v>0.3157146435303385</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>landscape_mesh</t>
-        </is>
+          <t>landscape_shei</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>-0.3224329008281957</v>
+      </c>
+      <c r="C5">
+        <v>0.2243690049765698</v>
+      </c>
+      <c r="D5">
+        <v>-0.209105964450485</v>
+      </c>
+      <c r="E5">
+        <v>-0.1636019513859043</v>
+      </c>
+      <c r="F5">
+        <v>0.9526466303350779</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>landscape_np</t>
-        </is>
+          <t>landscape_siei</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>-0.3985410262321717</v>
+      </c>
+      <c r="C6">
+        <v>0.2833413389610444</v>
+      </c>
+      <c r="D6">
+        <v>-0.2740491257514945</v>
+      </c>
+      <c r="E6">
+        <v>-0.1988449256457674</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>landscape_shei</t>
-        </is>
+          <t>nonanthro_cai_mn</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.6527094553318046</v>
+      </c>
+      <c r="C7">
+        <v>-0.5994955888551097</v>
+      </c>
+      <c r="D7">
+        <v>0.4280674917808679</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>landscape_siei</t>
-        </is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.8152774544292376</v>
+      </c>
+      <c r="C8">
+        <v>-0.8902350334066731</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>landscape_tca</t>
-        </is>
+          <t>nonanthro_ed</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>-0.868618253812232</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
-        <is>
-          <t>nonanthro_cai_mn</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>nonanthro_ed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
         <is>
           <t>nonanthro_tca</t>
         </is>
@@ -1588,7 +2260,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1612,14 +2284,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>nonanthro_cai_mn</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_tca</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>landscape_siei</t>
@@ -1642,92 +2314,176 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>landscape_contag</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_cai_mn</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>landscape_cai_mn</t>
-        </is>
+          <t>landscape_contag</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.5322172243124059</v>
+      </c>
+      <c r="C2">
+        <v>-0.4755298335722444</v>
+      </c>
+      <c r="D2">
+        <v>0.4461890130589208</v>
+      </c>
+      <c r="E2">
+        <v>0.32384591612995</v>
+      </c>
+      <c r="F2">
+        <v>-0.9234840592418966</v>
+      </c>
+      <c r="G2">
+        <v>-0.9417402109033253</v>
+      </c>
+      <c r="H2">
+        <v>-0.5474385087402684</v>
+      </c>
+      <c r="I2">
+        <v>0.1699249005459549</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>landscape_contag</t>
-        </is>
+          <t>landscape_mesh</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0.08217169977273575</v>
+      </c>
+      <c r="C3">
+        <v>-0.3369468711830984</v>
+      </c>
+      <c r="D3">
+        <v>0.4218181969112741</v>
+      </c>
+      <c r="E3">
+        <v>-0.1897371500242055</v>
+      </c>
+      <c r="F3">
+        <v>-0.1416795366722524</v>
+      </c>
+      <c r="G3">
+        <v>-0.1479590177264596</v>
+      </c>
+      <c r="H3">
+        <v>-0.2345596242420824</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
+          <t>landscape_np</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>-0.8447085405193633</v>
+      </c>
+      <c r="C4">
+        <v>0.9301946182475781</v>
+      </c>
+      <c r="D4">
+        <v>-0.8164664438433464</v>
+      </c>
+      <c r="E4">
+        <v>-0.715347666265205</v>
+      </c>
+      <c r="F4">
+        <v>0.3699231080968347</v>
+      </c>
+      <c r="G4">
+        <v>0.3199319753052051</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>landscape_mesh</t>
-        </is>
+          <t>landscape_shei</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>-0.3435337985275933</v>
+      </c>
+      <c r="C5">
+        <v>0.238054062701988</v>
+      </c>
+      <c r="D5">
+        <v>-0.22951484386762</v>
+      </c>
+      <c r="E5">
+        <v>-0.1471572726631271</v>
+      </c>
+      <c r="F5">
+        <v>0.9528315207158351</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>landscape_np</t>
-        </is>
+          <t>landscape_siei</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>-0.4081824935976989</v>
+      </c>
+      <c r="C6">
+        <v>0.2848814381000211</v>
+      </c>
+      <c r="D6">
+        <v>-0.2833478289907362</v>
+      </c>
+      <c r="E6">
+        <v>-0.1780061949597373</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>landscape_shei</t>
-        </is>
+          <t>nonanthro_cai_mn</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.6418644647857403</v>
+      </c>
+      <c r="C7">
+        <v>-0.5937558367817904</v>
+      </c>
+      <c r="D7">
+        <v>0.4227453655716754</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>landscape_siei</t>
-        </is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.8115631953434791</v>
+      </c>
+      <c r="C8">
+        <v>-0.8938711102742829</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>landscape_tca</t>
-        </is>
+          <t>nonanthro_ed</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>-0.8647572898692523</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
-        <is>
-          <t>nonanthro_cai_mn</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>nonanthro_ed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
         <is>
           <t>nonanthro_tca</t>
         </is>
@@ -1740,7 +2496,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1764,14 +2520,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>nonanthro_cai_mn</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_tca</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>landscape_siei</t>
@@ -1794,92 +2550,176 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>landscape_contag</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_cai_mn</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>landscape_cai_mn</t>
-        </is>
+          <t>landscape_contag</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.5452991620692479</v>
+      </c>
+      <c r="C2">
+        <v>-0.4783517890408302</v>
+      </c>
+      <c r="D2">
+        <v>0.4498007900479168</v>
+      </c>
+      <c r="E2">
+        <v>0.32448465579637</v>
+      </c>
+      <c r="F2">
+        <v>-0.9226534863722582</v>
+      </c>
+      <c r="G2">
+        <v>-0.942852722737253</v>
+      </c>
+      <c r="H2">
+        <v>-0.5475611116322741</v>
+      </c>
+      <c r="I2">
+        <v>0.1506649073152068</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>landscape_contag</t>
-        </is>
+          <t>landscape_mesh</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0.05812885652091393</v>
+      </c>
+      <c r="C3">
+        <v>-0.3170516096971608</v>
+      </c>
+      <c r="D3">
+        <v>0.4101521421437247</v>
+      </c>
+      <c r="E3">
+        <v>-0.2211943239407762</v>
+      </c>
+      <c r="F3">
+        <v>-0.1163098596757475</v>
+      </c>
+      <c r="G3">
+        <v>-0.1296467197616499</v>
+      </c>
+      <c r="H3">
+        <v>-0.2084979803154335</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
+          <t>landscape_np</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>-0.8414368249895725</v>
+      </c>
+      <c r="C4">
+        <v>0.93093965638193</v>
+      </c>
+      <c r="D4">
+        <v>-0.8160141386239594</v>
+      </c>
+      <c r="E4">
+        <v>-0.7108276775676478</v>
+      </c>
+      <c r="F4">
+        <v>0.3622024562834774</v>
+      </c>
+      <c r="G4">
+        <v>0.3213889466203055</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>landscape_mesh</t>
-        </is>
+          <t>landscape_shei</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>-0.3617713856854848</v>
+      </c>
+      <c r="C5">
+        <v>0.2418333730155885</v>
+      </c>
+      <c r="D5">
+        <v>-0.2338571265242608</v>
+      </c>
+      <c r="E5">
+        <v>-0.1515846803603778</v>
+      </c>
+      <c r="F5">
+        <v>0.9521758767860317</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>landscape_np</t>
-        </is>
+          <t>landscape_siei</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>-0.4174893471067863</v>
+      </c>
+      <c r="C6">
+        <v>0.2804759153866152</v>
+      </c>
+      <c r="D6">
+        <v>-0.2820563130820509</v>
+      </c>
+      <c r="E6">
+        <v>-0.1817935046122603</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>landscape_shei</t>
-        </is>
+          <t>nonanthro_cai_mn</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.6217188088984344</v>
+      </c>
+      <c r="C7">
+        <v>-0.5792048883507362</v>
+      </c>
+      <c r="D7">
+        <v>0.3990119307121411</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>landscape_siei</t>
-        </is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.80764321740958</v>
+      </c>
+      <c r="C8">
+        <v>-0.8939950245621211</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>landscape_tca</t>
-        </is>
+          <t>nonanthro_ed</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>-0.8596342415475852</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
-        <is>
-          <t>nonanthro_cai_mn</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>nonanthro_ed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
         <is>
           <t>nonanthro_tca</t>
         </is>
@@ -1892,7 +2732,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1916,14 +2756,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>nonanthro_cai_mn</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_tca</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>landscape_siei</t>
@@ -1946,92 +2786,176 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>landscape_contag</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_cai_mn</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>landscape_cai_mn</t>
-        </is>
+          <t>landscape_contag</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.5528552168707567</v>
+      </c>
+      <c r="C2">
+        <v>-0.4689228324149815</v>
+      </c>
+      <c r="D2">
+        <v>0.4530290515613992</v>
+      </c>
+      <c r="E2">
+        <v>0.322534628270343</v>
+      </c>
+      <c r="F2">
+        <v>-0.928374221149271</v>
+      </c>
+      <c r="G2">
+        <v>-0.9438260762601127</v>
+      </c>
+      <c r="H2">
+        <v>-0.5390274866331609</v>
+      </c>
+      <c r="I2">
+        <v>0.1345971031073281</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>landscape_contag</t>
-        </is>
+          <t>landscape_mesh</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0.03119689353974143</v>
+      </c>
+      <c r="C3">
+        <v>-0.2974864341399711</v>
+      </c>
+      <c r="D3">
+        <v>0.4016029618684342</v>
+      </c>
+      <c r="E3">
+        <v>-0.2495786951946235</v>
+      </c>
+      <c r="F3">
+        <v>-0.09086683025063211</v>
+      </c>
+      <c r="G3">
+        <v>-0.1126594443704464</v>
+      </c>
+      <c r="H3">
+        <v>-0.186715457667662</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
+          <t>landscape_np</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>-0.8391205168039879</v>
+      </c>
+      <c r="C4">
+        <v>0.9324173826627137</v>
+      </c>
+      <c r="D4">
+        <v>-0.8188361286098782</v>
+      </c>
+      <c r="E4">
+        <v>-0.6967167764287886</v>
+      </c>
+      <c r="F4">
+        <v>0.3523606287869097</v>
+      </c>
+      <c r="G4">
+        <v>0.3122565693245404</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>landscape_mesh</t>
-        </is>
+          <t>landscape_shei</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>-0.3718209702669854</v>
+      </c>
+      <c r="C5">
+        <v>0.2321535691956023</v>
+      </c>
+      <c r="D5">
+        <v>-0.238575830903031</v>
+      </c>
+      <c r="E5">
+        <v>-0.1577479446038233</v>
+      </c>
+      <c r="F5">
+        <v>0.9560931379633154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>landscape_np</t>
-        </is>
+          <t>landscape_siei</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>-0.425593884882721</v>
+      </c>
+      <c r="C6">
+        <v>0.272687426963583</v>
+      </c>
+      <c r="D6">
+        <v>-0.2818844027606775</v>
+      </c>
+      <c r="E6">
+        <v>-0.1856183960646271</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>landscape_shei</t>
-        </is>
+          <t>nonanthro_cai_mn</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.6064993874091159</v>
+      </c>
+      <c r="C7">
+        <v>-0.5625327567268968</v>
+      </c>
+      <c r="D7">
+        <v>0.3852041661462693</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>landscape_siei</t>
-        </is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.8016785782608908</v>
+      </c>
+      <c r="C8">
+        <v>-0.8939775165750452</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>landscape_tca</t>
-        </is>
+          <t>nonanthro_ed</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>-0.854364337437774</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
-        <is>
-          <t>nonanthro_cai_mn</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>nonanthro_ed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
         <is>
           <t>nonanthro_tca</t>
         </is>
@@ -2044,7 +2968,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2068,14 +2992,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>nonanthro_cai_mn</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_tca</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>landscape_siei</t>
@@ -2098,92 +3022,176 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>landscape_contag</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_cai_mn</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>landscape_cai_mn</t>
-        </is>
+          <t>landscape_contag</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.5387589061624135</v>
+      </c>
+      <c r="C2">
+        <v>-0.5600420184258218</v>
+      </c>
+      <c r="D2">
+        <v>0.5341986289503202</v>
+      </c>
+      <c r="E2">
+        <v>0.5022096121049808</v>
+      </c>
+      <c r="F2">
+        <v>-0.9525070072570736</v>
+      </c>
+      <c r="G2">
+        <v>-0.9716591684681407</v>
+      </c>
+      <c r="H2">
+        <v>-0.5761189842815612</v>
+      </c>
+      <c r="I2">
+        <v>0.8052951596330573</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>landscape_contag</t>
-        </is>
+          <t>landscape_mesh</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0.6389301533551465</v>
+      </c>
+      <c r="C3">
+        <v>-0.7804896478823959</v>
+      </c>
+      <c r="D3">
+        <v>0.7075751382679669</v>
+      </c>
+      <c r="E3">
+        <v>0.6211747738956969</v>
+      </c>
+      <c r="F3">
+        <v>-0.7196214257061416</v>
+      </c>
+      <c r="G3">
+        <v>-0.7137601807325435</v>
+      </c>
+      <c r="H3">
+        <v>-0.7706624008833745</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
+          <t>landscape_np</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>-0.5858737318462216</v>
+      </c>
+      <c r="C4">
+        <v>0.7851571569736988</v>
+      </c>
+      <c r="D4">
+        <v>-0.6486946306446683</v>
+      </c>
+      <c r="E4">
+        <v>-0.6517639602353221</v>
+      </c>
+      <c r="F4">
+        <v>0.4952613432830582</v>
+      </c>
+      <c r="G4">
+        <v>0.4739281553133523</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>landscape_mesh</t>
-        </is>
+          <t>landscape_shei</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>-0.4533763689591586</v>
+      </c>
+      <c r="C5">
+        <v>0.4257606271275805</v>
+      </c>
+      <c r="D5">
+        <v>-0.4304825020366321</v>
+      </c>
+      <c r="E5">
+        <v>-0.3967339137390127</v>
+      </c>
+      <c r="F5">
+        <v>0.9879898257152461</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>landscape_np</t>
-        </is>
+          <t>landscape_siei</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>-0.4388523674408511</v>
+      </c>
+      <c r="C6">
+        <v>0.410886266986645</v>
+      </c>
+      <c r="D6">
+        <v>-0.4107680174452588</v>
+      </c>
+      <c r="E6">
+        <v>-0.3797474003640735</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>landscape_shei</t>
-        </is>
+          <t>nonanthro_cai_mn</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.9216679653981953</v>
+      </c>
+      <c r="C7">
+        <v>-0.8154909885961196</v>
+      </c>
+      <c r="D7">
+        <v>0.911788333577896</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>landscape_siei</t>
-        </is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.8978069689941156</v>
+      </c>
+      <c r="C8">
+        <v>-0.8402027630065824</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>landscape_tca</t>
-        </is>
+          <t>nonanthro_ed</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>-0.7792734839602948</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
-        <is>
-          <t>nonanthro_cai_mn</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>nonanthro_ed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
         <is>
           <t>nonanthro_tca</t>
         </is>
@@ -2196,7 +3204,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2220,14 +3228,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>nonanthro_cai_mn</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_tca</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>landscape_siei</t>
@@ -2250,92 +3258,176 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>landscape_contag</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_cai_mn</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>landscape_cai_mn</t>
-        </is>
+          <t>landscape_contag</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.564406564136775</v>
+      </c>
+      <c r="C2">
+        <v>-0.4697549145938505</v>
+      </c>
+      <c r="D2">
+        <v>0.4582846172335192</v>
+      </c>
+      <c r="E2">
+        <v>0.3293286328412859</v>
+      </c>
+      <c r="F2">
+        <v>-0.9278830919256107</v>
+      </c>
+      <c r="G2">
+        <v>-0.9427915957134109</v>
+      </c>
+      <c r="H2">
+        <v>-0.5398548299353747</v>
+      </c>
+      <c r="I2">
+        <v>0.1210927096968213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>landscape_contag</t>
-        </is>
+          <t>landscape_mesh</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0.01009675049495909</v>
+      </c>
+      <c r="C3">
+        <v>-0.2838880107643935</v>
+      </c>
+      <c r="D3">
+        <v>0.3970018326787333</v>
+      </c>
+      <c r="E3">
+        <v>-0.254624014090911</v>
+      </c>
+      <c r="F3">
+        <v>-0.06844407952701267</v>
+      </c>
+      <c r="G3">
+        <v>-0.09855374216244016</v>
+      </c>
+      <c r="H3">
+        <v>-0.1715892720888357</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
+          <t>landscape_np</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>-0.8378965969494327</v>
+      </c>
+      <c r="C4">
+        <v>0.9339939789060967</v>
+      </c>
+      <c r="D4">
+        <v>-0.824004067895751</v>
+      </c>
+      <c r="E4">
+        <v>-0.6867883739887624</v>
+      </c>
+      <c r="F4">
+        <v>0.3475964485611592</v>
+      </c>
+      <c r="G4">
+        <v>0.3098341652029237</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>landscape_mesh</t>
-        </is>
+          <t>landscape_shei</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>-0.3821473621613912</v>
+      </c>
+      <c r="C5">
+        <v>0.2300551765722003</v>
+      </c>
+      <c r="D5">
+        <v>-0.2405797407685931</v>
+      </c>
+      <c r="E5">
+        <v>-0.1637320538415882</v>
+      </c>
+      <c r="F5">
+        <v>0.9544848180471123</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>landscape_np</t>
-        </is>
+          <t>landscape_siei</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>-0.4363821254017121</v>
+      </c>
+      <c r="C6">
+        <v>0.2695910790768612</v>
+      </c>
+      <c r="D6">
+        <v>-0.2848126135991025</v>
+      </c>
+      <c r="E6">
+        <v>-0.1891824788819339</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>landscape_shei</t>
-        </is>
+          <t>nonanthro_cai_mn</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.59151481443609</v>
+      </c>
+      <c r="C7">
+        <v>-0.5547151386357126</v>
+      </c>
+      <c r="D7">
+        <v>0.3759216125157958</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>landscape_siei</t>
-        </is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.7944091412822865</v>
+      </c>
+      <c r="C8">
+        <v>-0.895812232875849</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>landscape_tca</t>
-        </is>
+          <t>nonanthro_ed</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>-0.8489718774184322</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
-        <is>
-          <t>nonanthro_cai_mn</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>nonanthro_ed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
         <is>
           <t>nonanthro_tca</t>
         </is>
@@ -2348,7 +3440,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2372,14 +3464,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>nonanthro_cai_mn</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_tca</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>landscape_siei</t>
@@ -2402,92 +3494,176 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>landscape_contag</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_cai_mn</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>landscape_cai_mn</t>
-        </is>
+          <t>landscape_contag</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.5706919314969819</v>
+      </c>
+      <c r="C2">
+        <v>-0.464632922788645</v>
+      </c>
+      <c r="D2">
+        <v>0.4604331189233795</v>
+      </c>
+      <c r="E2">
+        <v>0.308429680716952</v>
+      </c>
+      <c r="F2">
+        <v>-0.9268714019482918</v>
+      </c>
+      <c r="G2">
+        <v>-0.94029565103865</v>
+      </c>
+      <c r="H2">
+        <v>-0.5330969149393691</v>
+      </c>
+      <c r="I2">
+        <v>0.1136580033574584</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>landscape_contag</t>
-        </is>
+          <t>landscape_mesh</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>-0.005140933636050454</v>
+      </c>
+      <c r="C3">
+        <v>-0.2742835214750177</v>
+      </c>
+      <c r="D3">
+        <v>0.3927923692343915</v>
+      </c>
+      <c r="E3">
+        <v>-0.2869535687428095</v>
+      </c>
+      <c r="F3">
+        <v>-0.05251784852497095</v>
+      </c>
+      <c r="G3">
+        <v>-0.0889907588769079</v>
+      </c>
+      <c r="H3">
+        <v>-0.160902232602309</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
+          <t>landscape_np</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>-0.8336551937942439</v>
+      </c>
+      <c r="C4">
+        <v>0.9344187237817122</v>
+      </c>
+      <c r="D4">
+        <v>-0.8244159496690056</v>
+      </c>
+      <c r="E4">
+        <v>-0.669145105411984</v>
+      </c>
+      <c r="F4">
+        <v>0.3419347428483255</v>
+      </c>
+      <c r="G4">
+        <v>0.2948401051567816</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>landscape_mesh</t>
-        </is>
+          <t>landscape_shei</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>-0.3853769820531812</v>
+      </c>
+      <c r="C5">
+        <v>0.2164999194406198</v>
+      </c>
+      <c r="D5">
+        <v>-0.2345085443882185</v>
+      </c>
+      <c r="E5">
+        <v>-0.1418514469936258</v>
+      </c>
+      <c r="F5">
+        <v>0.9517371205926756</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>landscape_np</t>
-        </is>
+          <t>landscape_siei</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>-0.4443256198827342</v>
+      </c>
+      <c r="C6">
+        <v>0.2662782962464612</v>
+      </c>
+      <c r="D6">
+        <v>-0.2878440611889055</v>
+      </c>
+      <c r="E6">
+        <v>-0.1795669716351743</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>landscape_shei</t>
-        </is>
+          <t>nonanthro_cai_mn</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.5733985757403445</v>
+      </c>
+      <c r="C7">
+        <v>-0.5325667803302293</v>
+      </c>
+      <c r="D7">
+        <v>0.3500971806480898</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>landscape_siei</t>
-        </is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.7884549163672888</v>
+      </c>
+      <c r="C8">
+        <v>-0.8976135934426551</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>landscape_tca</t>
-        </is>
+          <t>nonanthro_ed</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>-0.8431059470934288</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
-        <is>
-          <t>nonanthro_cai_mn</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>nonanthro_ed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
         <is>
           <t>nonanthro_tca</t>
         </is>
@@ -2500,7 +3676,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2524,14 +3700,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>nonanthro_cai_mn</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_tca</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>landscape_siei</t>
@@ -2554,92 +3730,176 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>landscape_contag</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_cai_mn</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>landscape_cai_mn</t>
-        </is>
+          <t>landscape_contag</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.5812042702886063</v>
+      </c>
+      <c r="C2">
+        <v>-0.4641267004726778</v>
+      </c>
+      <c r="D2">
+        <v>0.4625731684815481</v>
+      </c>
+      <c r="E2">
+        <v>0.3037482562761794</v>
+      </c>
+      <c r="F2">
+        <v>-0.9245980803850549</v>
+      </c>
+      <c r="G2">
+        <v>-0.9401943763892718</v>
+      </c>
+      <c r="H2">
+        <v>-0.5291574325146691</v>
+      </c>
+      <c r="I2">
+        <v>0.0988963553578025</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>landscape_contag</t>
-        </is>
+          <t>landscape_mesh</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>-0.02322351473595201</v>
+      </c>
+      <c r="C3">
+        <v>-0.2632190773668138</v>
+      </c>
+      <c r="D3">
+        <v>0.3845844437761558</v>
+      </c>
+      <c r="E3">
+        <v>-0.3120011591494891</v>
+      </c>
+      <c r="F3">
+        <v>-0.03050200756994044</v>
+      </c>
+      <c r="G3">
+        <v>-0.07218460059338491</v>
+      </c>
+      <c r="H3">
+        <v>-0.1487724661860493</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
+          <t>landscape_np</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>-0.8280083715438856</v>
+      </c>
+      <c r="C4">
+        <v>0.9329681857658934</v>
+      </c>
+      <c r="D4">
+        <v>-0.824124990255972</v>
+      </c>
+      <c r="E4">
+        <v>-0.6560009707890889</v>
+      </c>
+      <c r="F4">
+        <v>0.3350876053057467</v>
+      </c>
+      <c r="G4">
+        <v>0.292851730360879</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>landscape_mesh</t>
-        </is>
+          <t>landscape_shei</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>-0.3990000071692188</v>
+      </c>
+      <c r="C5">
+        <v>0.2172319344174953</v>
+      </c>
+      <c r="D5">
+        <v>-0.2361309008802669</v>
+      </c>
+      <c r="E5">
+        <v>-0.14433033647408</v>
+      </c>
+      <c r="F5">
+        <v>0.9487633286154842</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>landscape_np</t>
-        </is>
+          <t>landscape_siei</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>-0.4530302590087837</v>
+      </c>
+      <c r="C6">
+        <v>0.2624772518799389</v>
+      </c>
+      <c r="D6">
+        <v>-0.2856575249064322</v>
+      </c>
+      <c r="E6">
+        <v>-0.1736753830532495</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>landscape_shei</t>
-        </is>
+          <t>nonanthro_cai_mn</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.5503784404232254</v>
+      </c>
+      <c r="C7">
+        <v>-0.5113964544062207</v>
+      </c>
+      <c r="D7">
+        <v>0.3296925272968007</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>landscape_siei</t>
-        </is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.7821058561575477</v>
+      </c>
+      <c r="C8">
+        <v>-0.8976890589041886</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>landscape_tca</t>
-        </is>
+          <t>nonanthro_ed</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>-0.8382984953318952</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
-        <is>
-          <t>nonanthro_cai_mn</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>nonanthro_ed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
         <is>
           <t>nonanthro_tca</t>
         </is>
@@ -2652,7 +3912,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2676,14 +3936,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>nonanthro_cai_mn</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_tca</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>landscape_siei</t>
@@ -2706,92 +3966,176 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>landscape_contag</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_cai_mn</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>landscape_cai_mn</t>
-        </is>
+          <t>landscape_contag</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.3877712179311391</v>
+      </c>
+      <c r="C2">
+        <v>-0.3866175598379804</v>
+      </c>
+      <c r="D2">
+        <v>0.3238327563474581</v>
+      </c>
+      <c r="E2">
+        <v>0.3272543231529866</v>
+      </c>
+      <c r="F2">
+        <v>-0.9079340067611176</v>
+      </c>
+      <c r="G2">
+        <v>-0.9574432383022456</v>
+      </c>
+      <c r="H2">
+        <v>-0.4410871214799079</v>
+      </c>
+      <c r="I2">
+        <v>0.625920677138196</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>landscape_contag</t>
-        </is>
+          <t>landscape_mesh</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0.4803108034868013</v>
+      </c>
+      <c r="C3">
+        <v>-0.6628115293239176</v>
+      </c>
+      <c r="D3">
+        <v>0.5734562429219722</v>
+      </c>
+      <c r="E3">
+        <v>0.4169414963733797</v>
+      </c>
+      <c r="F3">
+        <v>-0.5501842369301876</v>
+      </c>
+      <c r="G3">
+        <v>-0.5083514964252118</v>
+      </c>
+      <c r="H3">
+        <v>-0.6497589729651858</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
+          <t>landscape_np</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>-0.6350745726616518</v>
+      </c>
+      <c r="C4">
+        <v>0.748023571416141</v>
+      </c>
+      <c r="D4">
+        <v>-0.6552693340978204</v>
+      </c>
+      <c r="E4">
+        <v>-0.7033750534382563</v>
+      </c>
+      <c r="F4">
+        <v>0.3732363115667118</v>
+      </c>
+      <c r="G4">
+        <v>0.30364219509082</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>landscape_mesh</t>
-        </is>
+          <t>landscape_shei</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>-0.2574480158899516</v>
+      </c>
+      <c r="C5">
+        <v>0.1915382802743047</v>
+      </c>
+      <c r="D5">
+        <v>-0.1666769053900349</v>
+      </c>
+      <c r="E5">
+        <v>-0.1824916538442269</v>
+      </c>
+      <c r="F5">
+        <v>0.9569061190422106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>landscape_np</t>
-        </is>
+          <t>landscape_siei</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>-0.3032235955441301</v>
+      </c>
+      <c r="C6">
+        <v>0.2214685900568814</v>
+      </c>
+      <c r="D6">
+        <v>-0.1966616358408272</v>
+      </c>
+      <c r="E6">
+        <v>-0.2287931950260882</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>landscape_shei</t>
-        </is>
+          <t>nonanthro_cai_mn</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.809565098188729</v>
+      </c>
+      <c r="C7">
+        <v>-0.7690929731701637</v>
+      </c>
+      <c r="D7">
+        <v>0.8009674563923607</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>landscape_siei</t>
-        </is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.8780177574238266</v>
+      </c>
+      <c r="C8">
+        <v>-0.7865615280889461</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>landscape_tca</t>
-        </is>
+          <t>nonanthro_ed</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>-0.759247059856187</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
-        <is>
-          <t>nonanthro_cai_mn</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>nonanthro_ed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
         <is>
           <t>nonanthro_tca</t>
         </is>
@@ -2804,7 +4148,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2828,14 +4172,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>nonanthro_cai_mn</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_tca</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>landscape_siei</t>
@@ -2858,92 +4202,176 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>landscape_contag</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_cai_mn</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>landscape_cai_mn</t>
-        </is>
+          <t>landscape_contag</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.3377228845116397</v>
+      </c>
+      <c r="C2">
+        <v>-0.3793233970574725</v>
+      </c>
+      <c r="D2">
+        <v>0.2835788813734157</v>
+      </c>
+      <c r="E2">
+        <v>0.303557717439869</v>
+      </c>
+      <c r="F2">
+        <v>-0.9182043446220859</v>
+      </c>
+      <c r="G2">
+        <v>-0.9622091608278409</v>
+      </c>
+      <c r="H2">
+        <v>-0.4411960587831907</v>
+      </c>
+      <c r="I2">
+        <v>0.5453163681944774</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>landscape_contag</t>
-        </is>
+          <t>landscape_mesh</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0.3984178960688092</v>
+      </c>
+      <c r="C3">
+        <v>-0.6625191558477294</v>
+      </c>
+      <c r="D3">
+        <v>0.5650690745083538</v>
+      </c>
+      <c r="E3">
+        <v>0.360948372981568</v>
+      </c>
+      <c r="F3">
+        <v>-0.4675244574127647</v>
+      </c>
+      <c r="G3">
+        <v>-0.4383985625338887</v>
+      </c>
+      <c r="H3">
+        <v>-0.5935693680246134</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
+          <t>landscape_np</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>-0.6910281379590741</v>
+      </c>
+      <c r="C4">
+        <v>0.8002224858341281</v>
+      </c>
+      <c r="D4">
+        <v>-0.6823002939061023</v>
+      </c>
+      <c r="E4">
+        <v>-0.7301338236904276</v>
+      </c>
+      <c r="F4">
+        <v>0.3648334316702592</v>
+      </c>
+      <c r="G4">
+        <v>0.298507463390892</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>landscape_mesh</t>
-        </is>
+          <t>landscape_shei</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>-0.1966404421553781</v>
+      </c>
+      <c r="C5">
+        <v>0.1895270892376816</v>
+      </c>
+      <c r="D5">
+        <v>-0.1186660203702573</v>
+      </c>
+      <c r="E5">
+        <v>-0.1573780188496883</v>
+      </c>
+      <c r="F5">
+        <v>0.9581133483685687</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>landscape_np</t>
-        </is>
+          <t>landscape_siei</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>-0.2488598484245588</v>
+      </c>
+      <c r="C6">
+        <v>0.2238201175083652</v>
+      </c>
+      <c r="D6">
+        <v>-0.1522285045017586</v>
+      </c>
+      <c r="E6">
+        <v>-0.208002214458587</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>landscape_shei</t>
-        </is>
+          <t>nonanthro_cai_mn</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.8160187746086619</v>
+      </c>
+      <c r="C7">
+        <v>-0.7563900509080183</v>
+      </c>
+      <c r="D7">
+        <v>0.7435337200296203</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>landscape_siei</t>
-        </is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.8715049017358497</v>
+      </c>
+      <c r="C8">
+        <v>-0.8330338867821829</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>landscape_tca</t>
-        </is>
+          <t>nonanthro_ed</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>-0.7935105446826684</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
-        <is>
-          <t>nonanthro_cai_mn</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>nonanthro_ed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
         <is>
           <t>nonanthro_tca</t>
         </is>
@@ -2956,7 +4384,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2980,14 +4408,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>nonanthro_cai_mn</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_tca</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>landscape_siei</t>
@@ -3010,92 +4438,176 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>landscape_contag</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_cai_mn</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>landscape_cai_mn</t>
-        </is>
+          <t>landscape_contag</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.372703896954014</v>
+      </c>
+      <c r="C2">
+        <v>-0.38314890344833</v>
+      </c>
+      <c r="D2">
+        <v>0.3018325768238214</v>
+      </c>
+      <c r="E2">
+        <v>0.3209749081113674</v>
+      </c>
+      <c r="F2">
+        <v>-0.9176703510162744</v>
+      </c>
+      <c r="G2">
+        <v>-0.9630339983224028</v>
+      </c>
+      <c r="H2">
+        <v>-0.4401703542899597</v>
+      </c>
+      <c r="I2">
+        <v>0.4649621031318543</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>landscape_contag</t>
-        </is>
+          <t>landscape_mesh</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0.3811601050569985</v>
+      </c>
+      <c r="C3">
+        <v>-0.6497438456559415</v>
+      </c>
+      <c r="D3">
+        <v>0.5615347342765841</v>
+      </c>
+      <c r="E3">
+        <v>0.3251013595480222</v>
+      </c>
+      <c r="F3">
+        <v>-0.4058321972636978</v>
+      </c>
+      <c r="G3">
+        <v>-0.3616762992039525</v>
+      </c>
+      <c r="H3">
+        <v>-0.5772343718784385</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
+          <t>landscape_np</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>-0.7493613425230676</v>
+      </c>
+      <c r="C4">
+        <v>0.8469603281148909</v>
+      </c>
+      <c r="D4">
+        <v>-0.7331575502134752</v>
+      </c>
+      <c r="E4">
+        <v>-0.7518950355520507</v>
+      </c>
+      <c r="F4">
+        <v>0.3845514474865013</v>
+      </c>
+      <c r="G4">
+        <v>0.2879881022570531</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>landscape_mesh</t>
-        </is>
+          <t>landscape_shei</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>-0.2299008844025195</v>
+      </c>
+      <c r="C5">
+        <v>0.1979188022632822</v>
+      </c>
+      <c r="D5">
+        <v>-0.1381868729423613</v>
+      </c>
+      <c r="E5">
+        <v>-0.1764621716167607</v>
+      </c>
+      <c r="F5">
+        <v>0.9477614491481646</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>landscape_np</t>
-        </is>
+          <t>landscape_siei</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>-0.3166105618608251</v>
+      </c>
+      <c r="C6">
+        <v>0.26046001478037</v>
+      </c>
+      <c r="D6">
+        <v>-0.2050146532996943</v>
+      </c>
+      <c r="E6">
+        <v>-0.2513556049518926</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>landscape_shei</t>
-        </is>
+          <t>nonanthro_cai_mn</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.8231945847787895</v>
+      </c>
+      <c r="C7">
+        <v>-0.7626397322736557</v>
+      </c>
+      <c r="D7">
+        <v>0.7211587598839094</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>landscape_siei</t>
-        </is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.8685101189411755</v>
+      </c>
+      <c r="C8">
+        <v>-0.8469652166179004</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>landscape_tca</t>
-        </is>
+          <t>nonanthro_ed</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>-0.8204293902790886</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
-        <is>
-          <t>nonanthro_cai_mn</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>nonanthro_ed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
         <is>
           <t>nonanthro_tca</t>
         </is>
@@ -3108,7 +4620,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3132,14 +4644,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>nonanthro_cai_mn</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_tca</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>landscape_siei</t>
@@ -3162,92 +4674,176 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>landscape_contag</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_cai_mn</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>landscape_cai_mn</t>
-        </is>
+          <t>landscape_contag</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.3496653936648562</v>
+      </c>
+      <c r="C2">
+        <v>-0.3513495249036461</v>
+      </c>
+      <c r="D2">
+        <v>0.2790070914636256</v>
+      </c>
+      <c r="E2">
+        <v>0.2658164476218757</v>
+      </c>
+      <c r="F2">
+        <v>-0.920748134399459</v>
+      </c>
+      <c r="G2">
+        <v>-0.9630406392830178</v>
+      </c>
+      <c r="H2">
+        <v>-0.4295003817745646</v>
+      </c>
+      <c r="I2">
+        <v>0.4193708519937409</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>landscape_contag</t>
-        </is>
+          <t>landscape_mesh</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0.3469736913797467</v>
+      </c>
+      <c r="C3">
+        <v>-0.6085290643188772</v>
+      </c>
+      <c r="D3">
+        <v>0.5371346442826472</v>
+      </c>
+      <c r="E3">
+        <v>0.2209016688809491</v>
+      </c>
+      <c r="F3">
+        <v>-0.353000940676978</v>
+      </c>
+      <c r="G3">
+        <v>-0.3234139518281319</v>
+      </c>
+      <c r="H3">
+        <v>-0.5444260301705588</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
+          <t>landscape_np</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>-0.7645101516271345</v>
+      </c>
+      <c r="C4">
+        <v>0.8679374006862972</v>
+      </c>
+      <c r="D4">
+        <v>-0.7344021085446376</v>
+      </c>
+      <c r="E4">
+        <v>-0.7417138209966577</v>
+      </c>
+      <c r="F4">
+        <v>0.3560163552048677</v>
+      </c>
+      <c r="G4">
+        <v>0.2584560937460147</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>landscape_mesh</t>
-        </is>
+          <t>landscape_shei</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>-0.1988426012222091</v>
+      </c>
+      <c r="C5">
+        <v>0.1560909125613728</v>
+      </c>
+      <c r="D5">
+        <v>-0.1090087120871813</v>
+      </c>
+      <c r="E5">
+        <v>-0.1162439028623672</v>
+      </c>
+      <c r="F5">
+        <v>0.9425247498414282</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>landscape_np</t>
-        </is>
+          <t>landscape_siei</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>-0.3101981617517777</v>
+      </c>
+      <c r="C6">
+        <v>0.2329904816009228</v>
+      </c>
+      <c r="D6">
+        <v>-0.1900855170705786</v>
+      </c>
+      <c r="E6">
+        <v>-0.2137066408474168</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>landscape_shei</t>
-        </is>
+          <t>nonanthro_cai_mn</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.8008731203627437</v>
+      </c>
+      <c r="C7">
+        <v>-0.7298740253364845</v>
+      </c>
+      <c r="D7">
+        <v>0.6430235606276937</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>landscape_siei</t>
-        </is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.8510511370443187</v>
+      </c>
+      <c r="C8">
+        <v>-0.8497532194671352</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>landscape_tca</t>
-        </is>
+          <t>nonanthro_ed</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>-0.8383674382066197</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
-        <is>
-          <t>nonanthro_cai_mn</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>nonanthro_ed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
         <is>
           <t>nonanthro_tca</t>
         </is>
@@ -3260,7 +4856,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3284,14 +4880,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>nonanthro_cai_mn</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_tca</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>landscape_siei</t>
@@ -3314,92 +4910,176 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>landscape_contag</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_cai_mn</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>landscape_cai_mn</t>
-        </is>
+          <t>landscape_contag</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.3963449962567246</v>
+      </c>
+      <c r="C2">
+        <v>-0.3824064308978087</v>
+      </c>
+      <c r="D2">
+        <v>0.3275755441023661</v>
+      </c>
+      <c r="E2">
+        <v>0.2949350978164446</v>
+      </c>
+      <c r="F2">
+        <v>-0.9299695610060903</v>
+      </c>
+      <c r="G2">
+        <v>-0.964608962504608</v>
+      </c>
+      <c r="H2">
+        <v>-0.460376616701975</v>
+      </c>
+      <c r="I2">
+        <v>0.4028837616815818</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>landscape_contag</t>
-        </is>
+          <t>landscape_mesh</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0.3273273011523692</v>
+      </c>
+      <c r="C3">
+        <v>-0.5741688102158052</v>
+      </c>
+      <c r="D3">
+        <v>0.528225681999312</v>
+      </c>
+      <c r="E3">
+        <v>0.1999710212627711</v>
+      </c>
+      <c r="F3">
+        <v>-0.3229951185166207</v>
+      </c>
+      <c r="G3">
+        <v>-0.3161585514253727</v>
+      </c>
+      <c r="H3">
+        <v>-0.5040102635426318</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
+          <t>landscape_np</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>-0.7853273005813863</v>
+      </c>
+      <c r="C4">
+        <v>0.8873263267849667</v>
+      </c>
+      <c r="D4">
+        <v>-0.7427692561338679</v>
+      </c>
+      <c r="E4">
+        <v>-0.7411741489791129</v>
+      </c>
+      <c r="F4">
+        <v>0.3564697426133006</v>
+      </c>
+      <c r="G4">
+        <v>0.294356561399725</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>landscape_mesh</t>
-        </is>
+          <t>landscape_shei</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>-0.2486433856463708</v>
+      </c>
+      <c r="C5">
+        <v>0.1931960031821094</v>
+      </c>
+      <c r="D5">
+        <v>-0.1630842421004965</v>
+      </c>
+      <c r="E5">
+        <v>-0.1538047233077719</v>
+      </c>
+      <c r="F5">
+        <v>0.9537609533400825</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>landscape_np</t>
-        </is>
+          <t>landscape_siei</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>-0.3272150085413701</v>
+      </c>
+      <c r="C6">
+        <v>0.2437150758437439</v>
+      </c>
+      <c r="D6">
+        <v>-0.2143739715447978</v>
+      </c>
+      <c r="E6">
+        <v>-0.232341780056667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>landscape_shei</t>
-        </is>
+          <t>nonanthro_cai_mn</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.796084655497703</v>
+      </c>
+      <c r="C7">
+        <v>-0.7265303427316198</v>
+      </c>
+      <c r="D7">
+        <v>0.6288489163363783</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>landscape_siei</t>
-        </is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.8478064863624989</v>
+      </c>
+      <c r="C8">
+        <v>-0.8582726176753031</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>landscape_tca</t>
-        </is>
+          <t>nonanthro_ed</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>-0.8505099733997081</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
-        <is>
-          <t>nonanthro_cai_mn</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>nonanthro_ed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
         <is>
           <t>nonanthro_tca</t>
         </is>
@@ -3412,7 +5092,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3436,14 +5116,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>nonanthro_cai_mn</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_tca</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>landscape_siei</t>
@@ -3466,92 +5146,176 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>landscape_contag</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_cai_mn</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>landscape_cai_mn</t>
-        </is>
+          <t>landscape_contag</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.4500775973608218</v>
+      </c>
+      <c r="C2">
+        <v>-0.4248437581950774</v>
+      </c>
+      <c r="D2">
+        <v>0.3725584187570913</v>
+      </c>
+      <c r="E2">
+        <v>0.3527318308411493</v>
+      </c>
+      <c r="F2">
+        <v>-0.9301007199782357</v>
+      </c>
+      <c r="G2">
+        <v>-0.9623007758981427</v>
+      </c>
+      <c r="H2">
+        <v>-0.505657638108158</v>
+      </c>
+      <c r="I2">
+        <v>0.410793749497683</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>landscape_contag</t>
-        </is>
+          <t>landscape_mesh</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0.289037170135751</v>
+      </c>
+      <c r="C3">
+        <v>-0.531979357177652</v>
+      </c>
+      <c r="D3">
+        <v>0.5075285476407798</v>
+      </c>
+      <c r="E3">
+        <v>0.1550234905115388</v>
+      </c>
+      <c r="F3">
+        <v>-0.3308930318588765</v>
+      </c>
+      <c r="G3">
+        <v>-0.3392177778515662</v>
+      </c>
+      <c r="H3">
+        <v>-0.4706975417018854</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
+          <t>landscape_np</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>-0.8011912517549162</v>
+      </c>
+      <c r="C4">
+        <v>0.9019451909555971</v>
+      </c>
+      <c r="D4">
+        <v>-0.7523731908989458</v>
+      </c>
+      <c r="E4">
+        <v>-0.7584723072184132</v>
+      </c>
+      <c r="F4">
+        <v>0.3861208748097745</v>
+      </c>
+      <c r="G4">
+        <v>0.3354804521220256</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>landscape_mesh</t>
-        </is>
+          <t>landscape_shei</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>-0.2988372659014217</v>
+      </c>
+      <c r="C5">
+        <v>0.235281159783399</v>
+      </c>
+      <c r="D5">
+        <v>-0.205150064956896</v>
+      </c>
+      <c r="E5">
+        <v>-0.205887664377925</v>
+      </c>
+      <c r="F5">
+        <v>0.9561725276288486</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>landscape_np</t>
-        </is>
+          <t>landscape_siei</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>-0.3613948130324324</v>
+      </c>
+      <c r="C6">
+        <v>0.2781718039150727</v>
+      </c>
+      <c r="D6">
+        <v>-0.2462174635379189</v>
+      </c>
+      <c r="E6">
+        <v>-0.265648159642656</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>landscape_shei</t>
-        </is>
+          <t>nonanthro_cai_mn</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.7959822942934149</v>
+      </c>
+      <c r="C7">
+        <v>-0.7442019697240114</v>
+      </c>
+      <c r="D7">
+        <v>0.6172521591611863</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>landscape_siei</t>
-        </is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.8363836347109427</v>
+      </c>
+      <c r="C8">
+        <v>-0.8606916635945935</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>landscape_tca</t>
-        </is>
+          <t>nonanthro_ed</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>-0.8608887793801191</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
-        <is>
-          <t>nonanthro_cai_mn</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>nonanthro_ed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
         <is>
           <t>nonanthro_tca</t>
         </is>
@@ -3564,7 +5328,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3588,14 +5352,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>nonanthro_cai_mn</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_tca</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>landscape_siei</t>
@@ -3618,92 +5382,176 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>landscape_contag</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>landscape_cai_mn</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>landscape_cai_mn</t>
-        </is>
+          <t>landscape_contag</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.4573737491128091</v>
+      </c>
+      <c r="C2">
+        <v>-0.427118890929391</v>
+      </c>
+      <c r="D2">
+        <v>0.3757394388916538</v>
+      </c>
+      <c r="E2">
+        <v>0.3562132035126154</v>
+      </c>
+      <c r="F2">
+        <v>-0.9346008763804048</v>
+      </c>
+      <c r="G2">
+        <v>-0.9589418082052842</v>
+      </c>
+      <c r="H2">
+        <v>-0.5129960681966896</v>
+      </c>
+      <c r="I2">
+        <v>0.3578853672092759</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>landscape_contag</t>
-        </is>
+          <t>landscape_mesh</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0.2611338157337186</v>
+      </c>
+      <c r="C3">
+        <v>-0.5014615773262511</v>
+      </c>
+      <c r="D3">
+        <v>0.4934236000873889</v>
+      </c>
+      <c r="E3">
+        <v>0.08683606901920181</v>
+      </c>
+      <c r="F3">
+        <v>-0.2964904409786512</v>
+      </c>
+      <c r="G3">
+        <v>-0.2882841757605693</v>
+      </c>
+      <c r="H3">
+        <v>-0.4394478947882322</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>landscape_ed</t>
-        </is>
+          <t>landscape_np</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>-0.8167903096700723</v>
+      </c>
+      <c r="C4">
+        <v>0.9111658349405374</v>
+      </c>
+      <c r="D4">
+        <v>-0.7686849928463058</v>
+      </c>
+      <c r="E4">
+        <v>-0.7364806784275149</v>
+      </c>
+      <c r="F4">
+        <v>0.3885732751308554</v>
+      </c>
+      <c r="G4">
+        <v>0.3314339907654321</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>landscape_mesh</t>
-        </is>
+          <t>landscape_shei</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>-0.2959221860533035</v>
+      </c>
+      <c r="C5">
+        <v>0.2274138854185258</v>
+      </c>
+      <c r="D5">
+        <v>-0.1947143990741897</v>
+      </c>
+      <c r="E5">
+        <v>-0.2033274231299375</v>
+      </c>
+      <c r="F5">
+        <v>0.9593810171914094</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>landscape_np</t>
-        </is>
+          <t>landscape_siei</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>-0.3675114396206502</v>
+      </c>
+      <c r="C6">
+        <v>0.2831297338069043</v>
+      </c>
+      <c r="D6">
+        <v>-0.2490664356417338</v>
+      </c>
+      <c r="E6">
+        <v>-0.2732742463924679</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>landscape_shei</t>
-        </is>
+          <t>nonanthro_cai_mn</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.7752036341147656</v>
+      </c>
+      <c r="C7">
+        <v>-0.7056985856640526</v>
+      </c>
+      <c r="D7">
+        <v>0.5823540620605315</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>landscape_siei</t>
-        </is>
+          <t>nonanthro_cohesion</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.8317342076258604</v>
+      </c>
+      <c r="C8">
+        <v>-0.8702163104256667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>landscape_tca</t>
-        </is>
+          <t>nonanthro_ed</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>-0.8684081579673226</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
-        <is>
-          <t>nonanthro_cai_mn</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>nonanthro_ed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
         <is>
           <t>nonanthro_tca</t>
         </is>
